--- a/docs/odh/odh-UsualWork.xlsx
+++ b/docs/odh/odh-UsualWork.xlsx
@@ -395,7 +395,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReferralRequest)
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
@@ -424,7 +424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Procedure)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure)
 </t>
   </si>
   <si>
@@ -837,7 +837,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -868,7 +868,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson)
+    <t xml:space="preserve">Reference(RelatedPerson)
 </t>
   </si>
   <si>
@@ -891,7 +891,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
 </t>
   </si>
   <si>
@@ -985,7 +985,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1119,7 +1119,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Annotation}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1199,7 +1199,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Specimen)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1227,7 +1227,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
 </t>
   </si>
   <si>
@@ -1449,7 +1449,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DocumentReference|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Media|http://hl7.org/fhir/us/odh/StructureDefinition/obf-QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>

--- a/docs/odh/odh-UsualWork.xlsx
+++ b/docs/odh/odh-UsualWork.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$151</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4982" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5616" uniqueCount="575">
   <si>
     <t>Path</t>
   </si>
@@ -613,7 +613,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/observation-category</t>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1154,7 +1154,10 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1494,15 +1497,6 @@
     <t>outBoundRelationship[typeCode=COMP]</t>
   </si>
   <si>
-    <t>odh-UsualIndustry</t>
-  </si>
-  <si>
-    <t>UsualIndustry: The industry (type of business) in which the subject has worked for the longest duration while in the usual occupation</t>
-  </si>
-  <si>
-    <t>The industry (type of business) in which the subject has worked for the longest duration while in the usual occupation. For example, a person who has spent 30 years as a building carpenter in various industries, but mostly in construction, would record a usual occupation of building carpenter and a usual industry of construction.</t>
-  </si>
-  <si>
     <t>Observation.component.id</t>
   </si>
   <si>
@@ -1528,61 +1522,17 @@
 &lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
-    <t>Observation.component.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding</t>
-  </si>
-  <si>
-    <t>Fixed_21844-6</t>
-  </si>
-  <si>
-    <t>History of Usual industry</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.code</t>
-  </si>
-  <si>
-    <t>21844-6</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.component.code.text</t>
-  </si>
-  <si>
-    <t>Observation.component.valueCodeableConcept</t>
+    <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringRangeRatioSampledData {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-SampledData}timedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
   </si>
   <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>https://phinvads.cdc.gov/vads/ViewValueSet.action?oid=2.16.840.1.114222.4.11.7187</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -1638,6 +1588,63 @@
   </si>
   <si>
     <t>Observation.component.referenceRange.text</t>
+  </si>
+  <si>
+    <t>odh-UsualIndustry</t>
+  </si>
+  <si>
+    <t>UsualIndustry: The industry (type of business) in which the subject has worked for the longest duration while in the usual occupation</t>
+  </si>
+  <si>
+    <t>The industry (type of business) in which the subject has worked for the longest duration while in the usual occupation. For example, a person who has spent 30 years as a building carpenter in various industries, but mostly in construction, would record a usual occupation of building carpenter and a usual industry of construction.</t>
+  </si>
+  <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>Fixed_21844-6</t>
+  </si>
+  <si>
+    <t>History of Usual industry</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.code</t>
+  </si>
+  <si>
+    <t>21844-6</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>https://phinvads.cdc.gov/vads/ViewValueSet.action?oid=2.16.840.1.114222.4.11.7187</t>
   </si>
   <si>
     <t>odh-UsualOccupationDuration</t>
@@ -1945,7 +1952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO134"/>
+  <dimension ref="A1:AO151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7939,9 +7946,11 @@
       <c r="W51" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="X51" s="2"/>
+      <c r="X51" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7977,24 +7986,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8020,16 +8029,16 @@
         <v>151</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -8057,10 +8066,10 @@
         <v>240</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -8078,7 +8087,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8099,10 +8108,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -8113,7 +8122,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8136,16 +8145,16 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8195,7 +8204,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8213,24 +8222,24 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8253,16 +8262,16 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8312,7 +8321,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8330,24 +8339,24 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8370,19 +8379,19 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8431,7 +8440,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8443,7 +8452,7 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8452,10 +8461,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8466,7 +8475,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8581,7 +8590,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8698,11 +8707,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8724,10 +8733,10 @@
         <v>100</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>103</v>
@@ -8782,7 +8791,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8817,7 +8826,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8840,13 +8849,13 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8897,7 +8906,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8906,7 +8915,7 @@
         <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>45</v>
@@ -8918,10 +8927,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8932,7 +8941,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8955,13 +8964,13 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9012,7 +9021,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9021,7 +9030,7 @@
         <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>45</v>
@@ -9033,10 +9042,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -9047,7 +9056,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9073,16 +9082,16 @@
         <v>151</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9110,10 +9119,10 @@
         <v>337</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -9131,7 +9140,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9149,10 +9158,10 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>352</v>
@@ -9166,7 +9175,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9192,16 +9201,16 @@
         <v>151</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9229,10 +9238,10 @@
         <v>337</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9250,7 +9259,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9268,10 +9277,10 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>352</v>
@@ -9285,7 +9294,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9308,17 +9317,17 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9367,7 +9376,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9391,7 +9400,7 @@
         <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9402,7 +9411,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9428,10 +9437,10 @@
         <v>161</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9482,7 +9491,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9503,10 +9512,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9517,7 +9526,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9540,16 +9549,16 @@
         <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9599,7 +9608,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9620,10 +9629,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9634,7 +9643,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9657,16 +9666,16 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9716,7 +9725,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9737,10 +9746,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9751,7 +9760,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9774,19 +9783,19 @@
         <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9823,7 +9832,7 @@
         <v>45</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AB67" s="2"/>
       <c r="AC67" t="s" s="2">
@@ -9833,7 +9842,7 @@
         <v>170</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9845,7 +9854,7 @@
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
@@ -9854,10 +9863,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9868,17 +9877,15 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>55</v>
@@ -9890,16 +9897,16 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>399</v>
+        <v>161</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>474</v>
+        <v>162</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>475</v>
+        <v>163</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9950,19 +9957,19 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>464</v>
+        <v>164</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -9971,10 +9978,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>471</v>
+        <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>472</v>
+        <v>165</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9985,18 +9992,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -10008,15 +10015,17 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -10065,13 +10074,13 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
@@ -10100,11 +10109,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>99</v>
+        <v>411</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10117,24 +10126,26 @@
         <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>101</v>
+        <v>412</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>167</v>
+        <v>413</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -10182,7 +10193,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>171</v>
+        <v>414</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10206,7 +10217,7 @@
         <v>45</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10217,42 +10228,42 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>103</v>
+        <v>480</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10277,13 +10288,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10301,13 +10312,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10319,16 +10330,16 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>45</v>
+        <v>481</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>45</v>
@@ -10336,7 +10347,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10344,7 +10355,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>55</v>
@@ -10359,19 +10370,19 @@
         <v>56</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>151</v>
+        <v>483</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>481</v>
+        <v>322</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10396,13 +10407,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10420,10 +10431,10 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>55</v>
@@ -10438,24 +10449,24 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10478,16 +10489,20 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10511,13 +10526,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10535,7 +10550,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>164</v>
+        <v>487</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10544,7 +10559,7 @@
         <v>55</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>45</v>
@@ -10556,10 +10571,10 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>165</v>
+        <v>341</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10570,11 +10585,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10593,18 +10608,20 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>101</v>
+        <v>344</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>167</v>
+        <v>345</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
       </c>
@@ -10628,31 +10645,31 @@
         <v>45</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>171</v>
+        <v>491</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10670,24 +10687,24 @@
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>165</v>
+        <v>352</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10695,7 +10712,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>44</v>
@@ -10707,22 +10724,22 @@
         <v>45</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>173</v>
+        <v>400</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>174</v>
+        <v>493</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>175</v>
+        <v>494</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>176</v>
+        <v>403</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>177</v>
+        <v>404</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10759,17 +10776,19 @@
         <v>45</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AB75" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>179</v>
+        <v>492</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10790,10 +10809,10 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>180</v>
+        <v>406</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -10804,17 +10823,15 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>55</v>
@@ -10826,16 +10843,16 @@
         <v>45</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>488</v>
+        <v>162</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>488</v>
+        <v>163</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10886,13 +10903,13 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>45</v>
@@ -10910,7 +10927,7 @@
         <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -10921,18 +10938,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>45</v>
@@ -10944,15 +10961,17 @@
         <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
@@ -11001,13 +11020,13 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>45</v>
@@ -11036,11 +11055,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>99</v>
+        <v>411</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11053,24 +11072,26 @@
         <v>45</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>101</v>
+        <v>412</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>167</v>
+        <v>413</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11106,19 +11127,19 @@
         <v>45</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>171</v>
+        <v>414</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11142,7 +11163,7 @@
         <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11153,7 +11174,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11173,29 +11194,25 @@
         <v>45</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>68</v>
+        <v>416</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>187</v>
+        <v>417</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>45</v>
@@ -11237,7 +11254,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>192</v>
+        <v>415</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11246,7 +11263,7 @@
         <v>55</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>45</v>
@@ -11258,10 +11275,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>193</v>
+        <v>420</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>194</v>
+        <v>421</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11272,7 +11289,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11292,20 +11309,18 @@
         <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>196</v>
+        <v>423</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11354,7 +11369,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>199</v>
+        <v>422</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11363,7 +11378,7 @@
         <v>55</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>45</v>
@@ -11375,10 +11390,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>201</v>
+        <v>425</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11389,7 +11404,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11409,27 +11424,29 @@
         <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>203</v>
+        <v>427</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="N81" t="s" s="2">
-        <v>205</v>
+        <v>430</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
-        <v>494</v>
+        <v>45</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>45</v>
@@ -11447,13 +11464,13 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>45</v>
+        <v>432</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11471,7 +11488,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>207</v>
+        <v>426</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11489,13 +11506,13 @@
         <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11506,7 +11523,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11517,7 +11534,7 @@
         <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>45</v>
@@ -11526,20 +11543,22 @@
         <v>45</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>211</v>
+        <v>436</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="N82" t="s" s="2">
-        <v>213</v>
+        <v>439</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11564,13 +11583,13 @@
         <v>45</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>45</v>
+        <v>441</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11588,13 +11607,13 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>214</v>
+        <v>435</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>45</v>
@@ -11606,13 +11625,13 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>215</v>
+        <v>434</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>216</v>
+        <v>352</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11623,7 +11642,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11643,22 +11662,20 @@
         <v>45</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>219</v>
+        <v>444</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>222</v>
+        <v>446</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11707,7 +11724,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>223</v>
+        <v>442</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11728,10 +11745,10 @@
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>225</v>
+        <v>447</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11742,7 +11759,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11762,23 +11779,19 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>161</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>227</v>
+        <v>449</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>45</v>
       </c>
@@ -11826,7 +11839,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>231</v>
+        <v>448</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11847,10 +11860,10 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>232</v>
+        <v>420</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>233</v>
+        <v>451</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -11861,15 +11874,17 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>55</v>
@@ -11884,20 +11899,16 @@
         <v>56</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>45</v>
       </c>
@@ -11921,11 +11932,13 @@
         <v>45</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X85" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y85" t="s" s="2">
-        <v>501</v>
+        <v>45</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>45</v>
@@ -11943,42 +11956,42 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>45</v>
+        <v>471</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>503</v>
+        <v>45</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>329</v>
+        <v>472</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>330</v>
+        <v>473</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12001,20 +12014,16 @@
         <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>505</v>
+        <v>162</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>45</v>
       </c>
@@ -12038,13 +12047,13 @@
         <v>45</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>45</v>
@@ -12062,7 +12071,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>504</v>
+        <v>164</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -12071,7 +12080,7 @@
         <v>55</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>45</v>
@@ -12083,10 +12092,10 @@
         <v>45</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>341</v>
+        <v>165</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -12097,18 +12106,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>343</v>
+        <v>99</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>45</v>
@@ -12120,20 +12129,18 @@
         <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>344</v>
+        <v>101</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>345</v>
+        <v>167</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>45</v>
       </c>
@@ -12157,13 +12164,13 @@
         <v>45</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>45</v>
@@ -12181,7 +12188,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>508</v>
+        <v>171</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12199,59 +12206,59 @@
         <v>45</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>352</v>
+        <v>165</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>399</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>510</v>
+        <v>412</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>511</v>
+        <v>413</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>403</v>
+        <v>108</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>45</v>
@@ -12300,7 +12307,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>509</v>
+        <v>414</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12321,10 +12328,10 @@
         <v>45</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>406</v>
+        <v>97</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -12335,7 +12342,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12343,7 +12350,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>55</v>
@@ -12355,19 +12362,23 @@
         <v>45</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>162</v>
+        <v>478</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>45</v>
       </c>
@@ -12391,13 +12402,13 @@
         <v>45</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>45</v>
@@ -12415,10 +12426,10 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>164</v>
+        <v>477</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>55</v>
@@ -12433,16 +12444,16 @@
         <v>45</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>45</v>
+        <v>481</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>45</v>
@@ -12450,18 +12461,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>45</v>
@@ -12473,17 +12484,15 @@
         <v>45</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -12532,13 +12541,13 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>45</v>
@@ -12567,11 +12576,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>410</v>
+        <v>99</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12584,26 +12593,24 @@
         <v>45</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>411</v>
+        <v>101</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>412</v>
+        <v>167</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>108</v>
-      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>45</v>
       </c>
@@ -12639,19 +12646,19 @@
         <v>45</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>413</v>
+        <v>171</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -12675,7 +12682,7 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
@@ -12686,7 +12693,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12694,10 +12701,10 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>45</v>
@@ -12706,19 +12713,23 @@
         <v>45</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>415</v>
+        <v>173</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>416</v>
+        <v>174</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
       </c>
@@ -12754,28 +12765,26 @@
         <v>45</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AB92" s="2"/>
       <c r="AC92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>414</v>
+        <v>179</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>45</v>
@@ -12787,10 +12796,10 @@
         <v>45</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>419</v>
+        <v>180</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>420</v>
+        <v>181</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -12801,15 +12810,17 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B93" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="C93" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>55</v>
@@ -12821,16 +12832,16 @@
         <v>45</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>415</v>
+        <v>173</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>422</v>
+        <v>511</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>423</v>
+        <v>511</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12881,16 +12892,16 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>421</v>
+        <v>179</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>45</v>
@@ -12902,10 +12913,10 @@
         <v>45</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>424</v>
+        <v>45</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -12916,7 +12927,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12939,20 +12950,16 @@
         <v>45</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>45</v>
       </c>
@@ -12976,13 +12983,13 @@
         <v>45</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>431</v>
+        <v>45</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>45</v>
@@ -13000,7 +13007,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>425</v>
+        <v>164</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -13018,13 +13025,13 @@
         <v>45</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>432</v>
+        <v>45</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>352</v>
+        <v>165</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -13035,11 +13042,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13058,20 +13065,18 @@
         <v>45</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>435</v>
+        <v>101</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>436</v>
+        <v>167</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>45</v>
       </c>
@@ -13095,31 +13100,31 @@
         <v>45</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>439</v>
+        <v>45</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>440</v>
+        <v>45</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>434</v>
+        <v>171</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13137,13 +13142,13 @@
         <v>45</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>432</v>
+        <v>45</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>352</v>
+        <v>165</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -13154,7 +13159,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13174,27 +13179,29 @@
         <v>45</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>442</v>
+        <v>68</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>443</v>
+        <v>187</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N96" t="s" s="2">
-        <v>445</v>
+        <v>190</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>45</v>
@@ -13236,7 +13243,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>441</v>
+        <v>192</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13257,10 +13264,10 @@
         <v>45</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>446</v>
+        <v>194</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -13271,7 +13278,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13291,18 +13298,20 @@
         <v>45</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>161</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>448</v>
+        <v>196</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>45</v>
@@ -13351,7 +13360,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>447</v>
+        <v>199</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -13372,10 +13381,10 @@
         <v>45</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>419</v>
+        <v>200</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -13386,11 +13395,9 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
         <v>45</v>
       </c>
@@ -13411,22 +13418,24 @@
         <v>56</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>522</v>
+        <v>203</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>523</v>
+        <v>204</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
-        <v>45</v>
+        <v>517</v>
       </c>
       <c r="R98" t="s" s="2">
         <v>45</v>
@@ -13468,19 +13477,19 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>464</v>
+        <v>207</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>470</v>
+        <v>45</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>45</v>
@@ -13489,10 +13498,10 @@
         <v>45</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>471</v>
+        <v>208</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>472</v>
+        <v>209</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -13503,7 +13512,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13523,19 +13532,21 @@
         <v>45</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>161</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>45</v>
       </c>
@@ -13583,7 +13594,7 @@
         <v>45</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
@@ -13604,10 +13615,10 @@
         <v>45</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>45</v>
@@ -13618,18 +13629,18 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>477</v>
+        <v>519</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>45</v>
@@ -13638,21 +13649,23 @@
         <v>45</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>45</v>
       </c>
@@ -13700,13 +13713,13 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>45</v>
@@ -13721,10 +13734,10 @@
         <v>45</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>45</v>
@@ -13735,42 +13748,42 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>411</v>
+        <v>227</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>412</v>
+        <v>228</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>45</v>
@@ -13819,13 +13832,13 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>413</v>
+        <v>231</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>45</v>
@@ -13840,10 +13853,10 @@
         <v>45</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
@@ -13854,7 +13867,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>479</v>
+        <v>521</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13862,7 +13875,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>55</v>
@@ -13880,16 +13893,16 @@
         <v>151</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>481</v>
+        <v>322</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>45</v>
@@ -13914,13 +13927,11 @@
         <v>45</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X102" s="2"/>
       <c r="Y102" t="s" s="2">
-        <v>242</v>
+        <v>522</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
@@ -13938,10 +13949,10 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>55</v>
@@ -13956,24 +13967,24 @@
         <v>45</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13996,16 +14007,20 @@
         <v>45</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>45</v>
       </c>
@@ -14029,13 +14044,13 @@
         <v>45</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>45</v>
@@ -14053,7 +14068,7 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>164</v>
+        <v>487</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
@@ -14062,7 +14077,7 @@
         <v>55</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>45</v>
@@ -14074,10 +14089,10 @@
         <v>45</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>165</v>
+        <v>341</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
@@ -14088,18 +14103,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>45</v>
@@ -14111,18 +14126,20 @@
         <v>45</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>101</v>
+        <v>344</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>167</v>
+        <v>345</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>45</v>
       </c>
@@ -14146,31 +14163,31 @@
         <v>45</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>171</v>
+        <v>491</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
@@ -14188,24 +14205,24 @@
         <v>45</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>165</v>
+        <v>352</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14213,10 +14230,10 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>45</v>
@@ -14225,22 +14242,22 @@
         <v>45</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>173</v>
+        <v>400</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>174</v>
+        <v>493</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>175</v>
+        <v>494</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>176</v>
+        <v>403</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>177</v>
+        <v>404</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>45</v>
@@ -14277,17 +14294,19 @@
         <v>45</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AB105" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC105" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>179</v>
+        <v>492</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -14308,10 +14327,10 @@
         <v>45</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>180</v>
+        <v>406</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>181</v>
+        <v>407</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -14322,17 +14341,15 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>55</v>
@@ -14344,16 +14361,16 @@
         <v>45</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>525</v>
+        <v>162</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>525</v>
+        <v>163</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14404,13 +14421,13 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>45</v>
@@ -14428,7 +14445,7 @@
         <v>45</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -14439,18 +14456,18 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>45</v>
@@ -14462,15 +14479,17 @@
         <v>45</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>45</v>
@@ -14519,13 +14538,13 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>45</v>
@@ -14554,11 +14573,11 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>99</v>
+        <v>411</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14571,24 +14590,26 @@
         <v>45</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>101</v>
+        <v>412</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>167</v>
+        <v>413</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N108" s="2"/>
+      <c r="N108" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>45</v>
       </c>
@@ -14624,19 +14645,19 @@
         <v>45</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>171</v>
+        <v>414</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
@@ -14660,7 +14681,7 @@
         <v>45</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>45</v>
@@ -14671,7 +14692,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14691,29 +14712,25 @@
         <v>45</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>68</v>
+        <v>416</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>187</v>
+        <v>417</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="R109" t="s" s="2">
         <v>45</v>
@@ -14755,7 +14772,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>192</v>
+        <v>415</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -14764,7 +14781,7 @@
         <v>55</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>45</v>
@@ -14776,10 +14793,10 @@
         <v>45</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>193</v>
+        <v>420</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>194</v>
+        <v>421</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>45</v>
@@ -14790,7 +14807,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14810,20 +14827,18 @@
         <v>45</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>196</v>
+        <v>423</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -14872,7 +14887,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>199</v>
+        <v>422</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -14881,7 +14896,7 @@
         <v>55</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>45</v>
@@ -14893,10 +14908,10 @@
         <v>45</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>201</v>
+        <v>425</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
@@ -14907,7 +14922,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14927,27 +14942,29 @@
         <v>45</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>203</v>
+        <v>427</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M111" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="N111" t="s" s="2">
-        <v>205</v>
+        <v>430</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" t="s" s="2">
-        <v>526</v>
+        <v>45</v>
       </c>
       <c r="R111" t="s" s="2">
         <v>45</v>
@@ -14965,13 +14982,13 @@
         <v>45</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>45</v>
+        <v>432</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>45</v>
@@ -14989,7 +15006,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>207</v>
+        <v>426</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -15007,13 +15024,13 @@
         <v>45</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
@@ -15024,7 +15041,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15035,7 +15052,7 @@
         <v>43</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>45</v>
@@ -15044,20 +15061,22 @@
         <v>45</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>211</v>
+        <v>436</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M112" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="N112" t="s" s="2">
-        <v>213</v>
+        <v>439</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>45</v>
@@ -15082,13 +15101,13 @@
         <v>45</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>45</v>
+        <v>441</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>45</v>
@@ -15106,13 +15125,13 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>214</v>
+        <v>435</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>45</v>
@@ -15124,13 +15143,13 @@
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>215</v>
+        <v>434</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>216</v>
+        <v>352</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
@@ -15141,7 +15160,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15161,22 +15180,20 @@
         <v>45</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>219</v>
+        <v>444</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>222</v>
+        <v>446</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>45</v>
@@ -15225,7 +15242,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>223</v>
+        <v>442</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -15246,10 +15263,10 @@
         <v>45</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>225</v>
+        <v>447</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
@@ -15260,7 +15277,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15280,23 +15297,19 @@
         <v>45</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>161</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>227</v>
+        <v>449</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>45</v>
       </c>
@@ -15344,7 +15357,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>231</v>
+        <v>448</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -15365,10 +15378,10 @@
         <v>45</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>232</v>
+        <v>420</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>233</v>
+        <v>451</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
@@ -15379,9 +15392,11 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B115" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="C115" t="s" s="2">
         <v>45</v>
       </c>
@@ -15402,13 +15417,13 @@
         <v>56</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>528</v>
+        <v>400</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>322</v>
+        <v>525</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -15459,19 +15474,19 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>45</v>
+        <v>471</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>45</v>
@@ -15480,10 +15495,10 @@
         <v>45</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>45</v>
+        <v>472</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>45</v>
+        <v>473</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>45</v>
@@ -15494,7 +15509,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>529</v>
+        <v>474</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15609,7 +15624,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15679,16 +15694,16 @@
         <v>45</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
         <v>171</v>
@@ -15726,42 +15741,42 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>531</v>
+        <v>476</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>532</v>
+        <v>100</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>533</v>
+        <v>412</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>534</v>
+        <v>413</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>535</v>
+        <v>103</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>536</v>
+        <v>108</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>45</v>
@@ -15810,13 +15825,13 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>537</v>
+        <v>414</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>45</v>
@@ -15831,10 +15846,10 @@
         <v>45</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>538</v>
+        <v>45</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>539</v>
+        <v>97</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -15845,7 +15860,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>540</v>
+        <v>477</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15853,7 +15868,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>55</v>
@@ -15862,30 +15877,30 @@
         <v>45</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>541</v>
+        <v>478</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M119" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="N119" t="s" s="2">
-        <v>543</v>
+        <v>239</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P119" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="P119" s="2"/>
       <c r="Q119" t="s" s="2">
         <v>45</v>
       </c>
@@ -15905,13 +15920,13 @@
         <v>45</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>545</v>
+        <v>241</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>546</v>
+        <v>242</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>45</v>
@@ -15929,10 +15944,10 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>547</v>
+        <v>477</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>55</v>
@@ -15947,16 +15962,16 @@
         <v>45</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>45</v>
+        <v>481</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>548</v>
+        <v>245</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>549</v>
+        <v>246</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>45</v>
@@ -15964,7 +15979,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15984,21 +15999,19 @@
         <v>45</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>161</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>551</v>
+        <v>162</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>552</v>
+        <v>163</v>
       </c>
       <c r="M120" s="2"/>
-      <c r="N120" t="s" s="2">
-        <v>553</v>
-      </c>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>45</v>
       </c>
@@ -16046,7 +16059,7 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>554</v>
+        <v>164</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -16067,10 +16080,10 @@
         <v>45</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>555</v>
+        <v>45</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>556</v>
+        <v>165</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
@@ -16081,18 +16094,18 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>557</v>
+        <v>508</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>45</v>
@@ -16101,27 +16114,27 @@
         <v>45</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>558</v>
+        <v>101</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
-        <v>561</v>
+        <v>45</v>
       </c>
       <c r="R121" t="s" s="2">
         <v>45</v>
@@ -16151,28 +16164,28 @@
         <v>45</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>562</v>
+        <v>171</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>563</v>
+        <v>45</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>45</v>
@@ -16184,10 +16197,10 @@
         <v>45</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>555</v>
+        <v>45</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>564</v>
+        <v>165</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
@@ -16198,7 +16211,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16206,10 +16219,10 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>45</v>
@@ -16221,26 +16234,26 @@
         <v>56</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>566</v>
+        <v>174</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>567</v>
+        <v>175</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>568</v>
+        <v>176</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>569</v>
+        <v>177</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
-        <v>570</v>
+        <v>45</v>
       </c>
       <c r="R122" t="s" s="2">
         <v>45</v>
@@ -16270,25 +16283,23 @@
         <v>45</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AB122" s="2"/>
       <c r="AC122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>571</v>
+        <v>179</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>45</v>
@@ -16303,10 +16314,10 @@
         <v>45</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>555</v>
+        <v>180</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>572</v>
+        <v>181</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
@@ -16317,15 +16328,17 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B123" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="C123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>55</v>
@@ -16337,23 +16350,19 @@
         <v>45</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>45</v>
       </c>
@@ -16377,13 +16386,13 @@
         <v>45</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>45</v>
@@ -16401,16 +16410,16 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>504</v>
+        <v>179</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>45</v>
@@ -16422,10 +16431,10 @@
         <v>45</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
@@ -16436,11 +16445,11 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16459,20 +16468,16 @@
         <v>45</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>344</v>
+        <v>162</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>45</v>
       </c>
@@ -16496,13 +16501,13 @@
         <v>45</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>45</v>
@@ -16520,13 +16525,13 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>508</v>
+        <v>164</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>45</v>
@@ -16538,35 +16543,35 @@
         <v>45</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>352</v>
+        <v>165</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>45</v>
@@ -16578,20 +16583,18 @@
         <v>45</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>399</v>
+        <v>100</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>510</v>
+        <v>101</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>511</v>
+        <v>167</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>45</v>
       </c>
@@ -16627,19 +16630,19 @@
         <v>45</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AC125" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>509</v>
+        <v>171</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>43</v>
@@ -16660,10 +16663,10 @@
         <v>45</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>406</v>
+        <v>165</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>45</v>
@@ -16674,7 +16677,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16694,25 +16697,29 @@
         <v>45</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="R126" t="s" s="2">
         <v>45</v>
@@ -16754,7 +16761,7 @@
         <v>45</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>43</v>
@@ -16775,10 +16782,10 @@
         <v>45</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>45</v>
@@ -16789,18 +16796,18 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>45</v>
@@ -16809,19 +16816,19 @@
         <v>45</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -16871,13 +16878,13 @@
         <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>45</v>
@@ -16892,10 +16899,10 @@
         <v>45</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>45</v>
@@ -16906,49 +16913,47 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>411</v>
+        <v>203</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
-        <v>45</v>
+        <v>528</v>
       </c>
       <c r="R128" t="s" s="2">
         <v>45</v>
@@ -16990,13 +16995,13 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>413</v>
+        <v>207</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>45</v>
@@ -17011,10 +17016,10 @@
         <v>45</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>45</v>
@@ -17025,7 +17030,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17045,19 +17050,21 @@
         <v>45</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>415</v>
+        <v>161</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>416</v>
+        <v>211</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>417</v>
+        <v>212</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="N129" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>45</v>
       </c>
@@ -17105,7 +17112,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>414</v>
+        <v>214</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>43</v>
@@ -17114,7 +17121,7 @@
         <v>55</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>45</v>
@@ -17126,10 +17133,10 @@
         <v>45</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>419</v>
+        <v>215</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>45</v>
@@ -17140,7 +17147,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17160,19 +17167,23 @@
         <v>45</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>415</v>
+        <v>218</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>45</v>
       </c>
@@ -17220,7 +17231,7 @@
         <v>45</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>421</v>
+        <v>223</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
@@ -17229,7 +17240,7 @@
         <v>55</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>45</v>
@@ -17241,10 +17252,10 @@
         <v>45</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>419</v>
+        <v>224</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>424</v>
+        <v>225</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>45</v>
@@ -17255,7 +17266,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17275,22 +17286,22 @@
         <v>45</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>426</v>
+        <v>227</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>427</v>
+        <v>228</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>428</v>
+        <v>229</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>429</v>
+        <v>230</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>45</v>
@@ -17315,13 +17326,13 @@
         <v>45</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>431</v>
+        <v>45</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>45</v>
@@ -17339,7 +17350,7 @@
         <v>45</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>425</v>
+        <v>231</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>43</v>
@@ -17357,13 +17368,13 @@
         <v>45</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>432</v>
+        <v>45</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>433</v>
+        <v>232</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>352</v>
+        <v>233</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>45</v>
@@ -17374,7 +17385,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17394,23 +17405,19 @@
         <v>45</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>151</v>
+        <v>530</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>45</v>
       </c>
@@ -17434,13 +17441,13 @@
         <v>45</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>439</v>
+        <v>45</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>440</v>
+        <v>45</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>45</v>
@@ -17458,13 +17465,13 @@
         <v>45</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>45</v>
@@ -17476,13 +17483,13 @@
         <v>45</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>432</v>
+        <v>45</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>45</v>
@@ -17493,7 +17500,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17516,18 +17523,16 @@
         <v>45</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>442</v>
+        <v>161</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>443</v>
+        <v>162</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>444</v>
+        <v>163</v>
       </c>
       <c r="M133" s="2"/>
-      <c r="N133" t="s" s="2">
-        <v>445</v>
-      </c>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>45</v>
       </c>
@@ -17575,7 +17580,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>441</v>
+        <v>164</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -17599,7 +17604,7 @@
         <v>45</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>446</v>
+        <v>165</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>45</v>
@@ -17610,18 +17615,18 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>45</v>
@@ -17633,15 +17638,17 @@
         <v>45</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>448</v>
+        <v>101</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>45</v>
@@ -17678,53 +17685,2052 @@
         <v>45</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AC134" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE134" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO134" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO135" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="N136" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P136" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Q136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO136" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" hidden="true">
+      <c r="A137" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M137" s="2"/>
+      <c r="N137" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO137" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO143" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO144" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO145" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO146" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" hidden="true">
+      <c r="A147" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO147" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" hidden="true">
+      <c r="A148" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO148" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" hidden="true">
+      <c r="A149" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO149" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M150" s="2"/>
+      <c r="N150" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM150" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AF134" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AM134" t="s" s="2">
+      <c r="AN150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO150" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" hidden="true">
+      <c r="A151" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AN134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO134" t="s" s="2">
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO151" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO134">
+  <autoFilter ref="A1:AO151">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17734,7 +19740,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI133">
+  <conditionalFormatting sqref="A2:AI150">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
